--- a/public/actual_marks.xlsx
+++ b/public/actual_marks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5475" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6102" uniqueCount="1940">
   <si>
     <t>Filter(participantInn=372900043349, productGroup=LP, packageType=[UNIT], status=INTRODUCED, includeGtin=[], excludeGtin=[], appliedPeriod=null, emissionPeriod=Period(start=2023-05-30T21:00:00Z, end=2023-06-17T20:59:59Z), productionPeriod=null)</t>
   </si>
@@ -5203,6 +5203,642 @@
   </si>
   <si>
     <t>2023-05-31T05:42:24.301Z</t>
+  </si>
+  <si>
+    <t>0102900203466956215GtM9jRTFAdmo</t>
+  </si>
+  <si>
+    <t>02900203466956</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 120 - Синий</t>
+  </si>
+  <si>
+    <t>APPLIED</t>
+  </si>
+  <si>
+    <t>2023-06-17T12:31:59.547Z</t>
+  </si>
+  <si>
+    <t>2023-06-17T12:23:12.042Z</t>
+  </si>
+  <si>
+    <t>0102900076983482215VLj=kN1xDwFQ</t>
+  </si>
+  <si>
+    <t>02900076983482</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 120 - Синий</t>
+  </si>
+  <si>
+    <t>2023-06-17T12:31:59.454Z</t>
+  </si>
+  <si>
+    <t>2023-06-17T12:23:11.912Z</t>
+  </si>
+  <si>
+    <t>0102900245393234215YA!%Jeyglkrj</t>
+  </si>
+  <si>
+    <t>02900245393234</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина 280 х 280 - М - 125 - Шампань 1х1</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:21:12.532Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:06:00.033Z</t>
+  </si>
+  <si>
+    <t>0102900078174697215+iTfCD9hktP*</t>
+  </si>
+  <si>
+    <t>02900078174697</t>
+  </si>
+  <si>
+    <t>Наволочка из страйп-сатина 50 х 70 - М - 125 - Шампань 3х3</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.148Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:59.747Z</t>
+  </si>
+  <si>
+    <t>0102900240113936215tJl%nt_Bqo(m</t>
+  </si>
+  <si>
+    <t>02900240113936</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп-сатина семейное на резинке 160х200х30 - М - 135 - Светло-серый 0,5х0,5 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:21:12.531Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:59.277Z</t>
+  </si>
+  <si>
+    <t>0102900237884900215iE&lt;ssw%tZpjh</t>
+  </si>
+  <si>
+    <t>02900237884900</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 220 х 240 - М - 135 - Небесный глянцевая</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:21:12.523Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:56.523Z</t>
+  </si>
+  <si>
+    <t>0102900250940126215FRZr=KaW/k/a</t>
+  </si>
+  <si>
+    <t>02900250940126</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:23:18.329Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:56.419Z</t>
+  </si>
+  <si>
+    <t>0102900250940102215Aco.1Gwr(%ec</t>
+  </si>
+  <si>
+    <t>02900250940102</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.533Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:56.313Z</t>
+  </si>
+  <si>
+    <t>0102900250940119215qZlrd9NlATBA</t>
+  </si>
+  <si>
+    <t>02900250940119</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:23:18.330Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:56.232Z</t>
+  </si>
+  <si>
+    <t>0102900250940096215gUJ(Z+;yODqj</t>
+  </si>
+  <si>
+    <t>02900250940096</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.456Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:56.093Z</t>
+  </si>
+  <si>
+    <t>0102900246758339215d+WGImKoxyIH</t>
+  </si>
+  <si>
+    <t>02900246758339</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 220 х 240 - М - 125 - Серый</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:56.074Z</t>
+  </si>
+  <si>
+    <t>0102900250940089215We6arZIFC&amp;Nd</t>
+  </si>
+  <si>
+    <t>02900250940089</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.547Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.753Z</t>
+  </si>
+  <si>
+    <t>0102900250940072215X9Y;nq&gt;S4WA.</t>
+  </si>
+  <si>
+    <t>02900250940072</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.522Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.737Z</t>
+  </si>
+  <si>
+    <t>0102900237884917215%MyzaV.w?e+9</t>
+  </si>
+  <si>
+    <t>02900237884917</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 135 - Небесный глянцевая</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:21:12.576Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.592Z</t>
+  </si>
+  <si>
+    <t>0102900237884917215r=BaSc.hbP4S</t>
+  </si>
+  <si>
+    <t>0102900098420118215D/wCc';Ir+8G</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.481Z</t>
+  </si>
+  <si>
+    <t>0102900098420118215OZo&amp;e4cW-LN:</t>
+  </si>
+  <si>
+    <t>0102900098420118215P'INEf'G0c)k</t>
+  </si>
+  <si>
+    <t>0102900098420118215s&amp;PZW4rj=b0D</t>
+  </si>
+  <si>
+    <t>0102900250940058215-kJSL2&amp;fXVGN</t>
+  </si>
+  <si>
+    <t>02900250940058</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.507Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.315Z</t>
+  </si>
+  <si>
+    <t>0102900250940058215Vp"L)mH9YHID</t>
+  </si>
+  <si>
+    <t>0102900250940034215a3EaX67YVQUT</t>
+  </si>
+  <si>
+    <t>02900250940034</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:14.227Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.270Z</t>
+  </si>
+  <si>
+    <t>0102900124635714215MjV!tK7;fy7B</t>
+  </si>
+  <si>
+    <t>02900124635714</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 х 200 х 30 - М - 115 - Изумрудный</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:20:11.092Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.214Z</t>
+  </si>
+  <si>
+    <t>0102900250940027215Q??IT:Ve3Pdt</t>
+  </si>
+  <si>
+    <t>02900250940027</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:22:11.617Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:55.116Z</t>
+  </si>
+  <si>
+    <t>0102900098420125215FVjkYlX/CxpR</t>
+  </si>
+  <si>
+    <t>02900098420125</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 200 х 220 - М - Изумрудный</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:20:11.139Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:05:51.960Z</t>
+  </si>
+  <si>
+    <t>0102900098420125215UDY_gESY6wu4</t>
+  </si>
+  <si>
+    <t>0102900250939786215GDlPZDQVIs2c</t>
+  </si>
+  <si>
+    <t>02900250939786</t>
+  </si>
+  <si>
+    <t>2023-06-16T07:00:08.427Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:40.562Z</t>
+  </si>
+  <si>
+    <t>0102900250939779215qhhmEDT5IWJ=</t>
+  </si>
+  <si>
+    <t>02900250939779</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:59:09.410Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:40.531Z</t>
+  </si>
+  <si>
+    <t>0102900250939755215Q(_&lt;'aeaTWpU</t>
+  </si>
+  <si>
+    <t>02900250939755</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:59:09.547Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:40.342Z</t>
+  </si>
+  <si>
+    <t>0102900250939762215Y,PQTUw1&amp;/?c</t>
+  </si>
+  <si>
+    <t>02900250939762</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:59:09.427Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:40.332Z</t>
+  </si>
+  <si>
+    <t>0102900088843316215cPBhGgC1;W?R</t>
+  </si>
+  <si>
+    <t>02900088843316</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 40 х 60 - М - 371 Черная</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:59:09.428Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:37.766Z</t>
+  </si>
+  <si>
+    <t>0102900077572272215dD)NN:Eca85:</t>
+  </si>
+  <si>
+    <t>02900077572272</t>
+  </si>
+  <si>
+    <t>Наволочка из сатина 50 х 70 - М - 125 - Черный</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:59:09.416Z</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:37.644Z</t>
+  </si>
+  <si>
+    <t>0102900109826731215k)iQF_WjaPNc</t>
+  </si>
+  <si>
+    <t>02900109826731</t>
+  </si>
+  <si>
+    <t>Простыня из страйп-сатина на резинке 160 х 200 х 40 - М - 125 - Фиалка 1х1</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:37.455Z</t>
+  </si>
+  <si>
+    <t>0102900098420118215EODKxJiElp!j</t>
+  </si>
+  <si>
+    <t>2023-06-16T06:48:37.454Z</t>
+  </si>
+  <si>
+    <t>0102900248144758215DBoJetLs/&amp;QG</t>
+  </si>
+  <si>
+    <t>02900248144758</t>
+  </si>
+  <si>
+    <t>Одеяло из эвкалиптового волокна 1,5 спальное - ЭК - Всесезонное 300 гр. (Тик - 100% Хлопок)</t>
+  </si>
+  <si>
+    <t>2023-06-01T08:31:56.793Z</t>
+  </si>
+  <si>
+    <t>2023-06-01T08:24:00.316Z</t>
+  </si>
+  <si>
+    <t>0102900247910033215!gIC"JWpV2Ud</t>
+  </si>
+  <si>
+    <t>02900247910033</t>
+  </si>
+  <si>
+    <t>Матрас ватный тик с бортом 80 х 200 - СИН - Вата белая</t>
+  </si>
+  <si>
+    <t>2023-05-31T06:28:53.621Z</t>
+  </si>
+  <si>
+    <t>2023-05-31T05:56:42.090Z</t>
+  </si>
+  <si>
+    <t>0102900250858803215,qBMa+Beh(hn</t>
+  </si>
+  <si>
+    <t>02900250858803</t>
+  </si>
+  <si>
+    <t>Постельное белье варёный хлопок Евро - М - 323 Серый</t>
+  </si>
+  <si>
+    <t>2023-06-17T12:55:30.331Z</t>
+  </si>
+  <si>
+    <t>2023-06-18T11:37:00Z</t>
+  </si>
+  <si>
+    <t>RETIRED</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>2023-06-15T13:34:42.427Z</t>
+  </si>
+  <si>
+    <t>2023-06-15T13:27:00.667Z</t>
+  </si>
+  <si>
+    <t>01029000796063642155I/A45P'OHQu</t>
+  </si>
+  <si>
+    <t>2023-06-16T19:41:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-14T12:34:55.678Z</t>
+  </si>
+  <si>
+    <t>2023-06-14T12:30:40.650Z</t>
+  </si>
+  <si>
+    <t>0102900236620479215XFZS(oe(vm!a</t>
+  </si>
+  <si>
+    <t>02900236620479</t>
+  </si>
+  <si>
+    <t>Наволочка из тенселя 50 х 70 - М - 60S 4226 Серый</t>
+  </si>
+  <si>
+    <t>2023-06-16T17:59:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T15:43:01.516Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T15:37:50.069Z</t>
+  </si>
+  <si>
+    <t>0102900236620479215oe=Zoghp_AUF</t>
+  </si>
+  <si>
+    <t>0102900076983475215MZ"RMWih+30_</t>
+  </si>
+  <si>
+    <t>2023-06-16T17:12:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:38:43.134Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:33:46.648Z</t>
+  </si>
+  <si>
+    <t>0102900248892871215TO3Q*P:PFm*R</t>
+  </si>
+  <si>
+    <t>02900248892871</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 200 х 220 х 30 - М - 120 - Красный</t>
+  </si>
+  <si>
+    <t>2023-06-13T20:02:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:38:42.138Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:33:46.583Z</t>
+  </si>
+  <si>
+    <t>0102900248892758215P(QnadPYkf5J</t>
+  </si>
+  <si>
+    <t>02900248892758</t>
+  </si>
+  <si>
+    <t>Пододеяльник из сатина 240 х 260 - М - 125 - Шампань</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:38:42.131Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:33:46.523Z</t>
+  </si>
+  <si>
+    <t>0102900079606432215,1o%hDa-OUj*</t>
+  </si>
+  <si>
+    <t>02900079606432</t>
+  </si>
+  <si>
+    <t>Простыня из сатина на резинке 160 x 200 х 30 - М - 140 - Белая</t>
+  </si>
+  <si>
+    <t>2023-06-15T16:54:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:37:43.136Z</t>
+  </si>
+  <si>
+    <t>2023-06-06T06:33:46.265Z</t>
+  </si>
+  <si>
+    <t>0102900075722570215%YCf8Ys1a/&lt;V</t>
+  </si>
+  <si>
+    <t>2023-06-08T13:45:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:52:31.550Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:48:34.591Z</t>
+  </si>
+  <si>
+    <t>0102900075722570215IQTmthVQDJi3</t>
+  </si>
+  <si>
+    <t>0102900075722556215MGEGZv=PX4&lt;3</t>
+  </si>
+  <si>
+    <t>02900075722556</t>
+  </si>
+  <si>
+    <t>Пододеяльник из варёного хлопка 200 х 220 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2023-06-08T13:40:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:51:30.640Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:48:34.404Z</t>
+  </si>
+  <si>
+    <t>01029000806517282154ORf+Q*rFIR3</t>
+  </si>
+  <si>
+    <t>02900080651728</t>
+  </si>
+  <si>
+    <t>Простыня из варёного хлопка 300 х 300 - М - Чёрный</t>
+  </si>
+  <si>
+    <t>2023-06-08T13:39:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:51:30.533Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:48:34.359Z</t>
+  </si>
+  <si>
+    <t>0102900074695332215nJy57P&amp;dhWch</t>
+  </si>
+  <si>
+    <t>02900074695332</t>
+  </si>
+  <si>
+    <t>Пододеяльник из страйп-сатина 145 х 215 - М - 135 - Белый 3х3</t>
+  </si>
+  <si>
+    <t>2023-06-08T23:16:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:51:30.440Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:48:34.301Z</t>
+  </si>
+  <si>
+    <t>0102900248858570215Co'YIGDFP8eY</t>
+  </si>
+  <si>
+    <t>02900248858570</t>
+  </si>
+  <si>
+    <t>Постельное бельё из сатина 1,5 спальное - М - 125 - однотонный Белый с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-06-09T16:17:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:51:30.337Z</t>
+  </si>
+  <si>
+    <t>2023-06-05T14:48:34.111Z</t>
+  </si>
+  <si>
+    <t>0102900248323900215AzKTKY_mQCZz</t>
+  </si>
+  <si>
+    <t>02900248323900</t>
+  </si>
+  <si>
+    <t>Постельное бельё из страйп сатина Евро макси - М - 145 - Аква 1х1 с наволочками 50х70</t>
+  </si>
+  <si>
+    <t>2023-06-05T22:08:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-02T07:42:25.647Z</t>
+  </si>
+  <si>
+    <t>2023-06-02T07:33:07.241Z</t>
   </si>
 </sst>
 </file>
@@ -5542,15 +6178,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC425"/>
+  <dimension ref="A1:AC476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26636,6 +27275,2334 @@
         <v>1727</v>
       </c>
     </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G426">
+        <v>372900043349</v>
+      </c>
+      <c r="H426">
+        <v>372900043349</v>
+      </c>
+      <c r="J426" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K426" t="s">
+        <v>33</v>
+      </c>
+      <c r="L426" t="s">
+        <v>34</v>
+      </c>
+      <c r="M426" t="s">
+        <v>34</v>
+      </c>
+      <c r="P426" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R426" t="s">
+        <v>37</v>
+      </c>
+      <c r="T426" t="s">
+        <v>38</v>
+      </c>
+      <c r="U426" t="s">
+        <v>39</v>
+      </c>
+      <c r="V426" t="s">
+        <v>1732</v>
+      </c>
+      <c r="W426" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1735</v>
+      </c>
+      <c r="G427">
+        <v>372900043349</v>
+      </c>
+      <c r="H427">
+        <v>372900043349</v>
+      </c>
+      <c r="J427" t="s">
+        <v>1736</v>
+      </c>
+      <c r="K427" t="s">
+        <v>33</v>
+      </c>
+      <c r="L427" t="s">
+        <v>34</v>
+      </c>
+      <c r="M427" t="s">
+        <v>34</v>
+      </c>
+      <c r="P427" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R427" t="s">
+        <v>37</v>
+      </c>
+      <c r="T427" t="s">
+        <v>38</v>
+      </c>
+      <c r="U427" t="s">
+        <v>39</v>
+      </c>
+      <c r="V427" t="s">
+        <v>1737</v>
+      </c>
+      <c r="W427" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G428">
+        <v>372900043349</v>
+      </c>
+      <c r="H428">
+        <v>372900043349</v>
+      </c>
+      <c r="J428" t="s">
+        <v>1741</v>
+      </c>
+      <c r="K428" t="s">
+        <v>33</v>
+      </c>
+      <c r="L428" t="s">
+        <v>34</v>
+      </c>
+      <c r="M428" t="s">
+        <v>34</v>
+      </c>
+      <c r="P428" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R428" t="s">
+        <v>37</v>
+      </c>
+      <c r="T428" t="s">
+        <v>38</v>
+      </c>
+      <c r="U428" t="s">
+        <v>39</v>
+      </c>
+      <c r="V428" t="s">
+        <v>1742</v>
+      </c>
+      <c r="W428" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G429">
+        <v>372900043349</v>
+      </c>
+      <c r="H429">
+        <v>372900043349</v>
+      </c>
+      <c r="J429" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K429" t="s">
+        <v>33</v>
+      </c>
+      <c r="L429" t="s">
+        <v>34</v>
+      </c>
+      <c r="M429" t="s">
+        <v>34</v>
+      </c>
+      <c r="P429" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R429" t="s">
+        <v>37</v>
+      </c>
+      <c r="T429" t="s">
+        <v>38</v>
+      </c>
+      <c r="U429" t="s">
+        <v>39</v>
+      </c>
+      <c r="V429" t="s">
+        <v>1747</v>
+      </c>
+      <c r="W429" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G430">
+        <v>372900043349</v>
+      </c>
+      <c r="H430">
+        <v>372900043349</v>
+      </c>
+      <c r="J430" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K430" t="s">
+        <v>33</v>
+      </c>
+      <c r="L430" t="s">
+        <v>34</v>
+      </c>
+      <c r="M430" t="s">
+        <v>34</v>
+      </c>
+      <c r="P430" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R430" t="s">
+        <v>37</v>
+      </c>
+      <c r="T430" t="s">
+        <v>38</v>
+      </c>
+      <c r="U430" t="s">
+        <v>39</v>
+      </c>
+      <c r="V430" t="s">
+        <v>1752</v>
+      </c>
+      <c r="W430" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G431">
+        <v>372900043349</v>
+      </c>
+      <c r="H431">
+        <v>372900043349</v>
+      </c>
+      <c r="J431" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K431" t="s">
+        <v>33</v>
+      </c>
+      <c r="L431" t="s">
+        <v>34</v>
+      </c>
+      <c r="M431" t="s">
+        <v>34</v>
+      </c>
+      <c r="P431" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R431" t="s">
+        <v>37</v>
+      </c>
+      <c r="T431" t="s">
+        <v>38</v>
+      </c>
+      <c r="U431" t="s">
+        <v>39</v>
+      </c>
+      <c r="V431" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W431" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G432">
+        <v>372900043349</v>
+      </c>
+      <c r="H432">
+        <v>372900043349</v>
+      </c>
+      <c r="L432" t="s">
+        <v>34</v>
+      </c>
+      <c r="M432" t="s">
+        <v>34</v>
+      </c>
+      <c r="P432" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R432" t="s">
+        <v>37</v>
+      </c>
+      <c r="T432" t="s">
+        <v>38</v>
+      </c>
+      <c r="U432" t="s">
+        <v>39</v>
+      </c>
+      <c r="V432" t="s">
+        <v>1761</v>
+      </c>
+      <c r="W432" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G433">
+        <v>372900043349</v>
+      </c>
+      <c r="H433">
+        <v>372900043349</v>
+      </c>
+      <c r="L433" t="s">
+        <v>34</v>
+      </c>
+      <c r="M433" t="s">
+        <v>34</v>
+      </c>
+      <c r="P433" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R433" t="s">
+        <v>37</v>
+      </c>
+      <c r="T433" t="s">
+        <v>38</v>
+      </c>
+      <c r="U433" t="s">
+        <v>39</v>
+      </c>
+      <c r="V433" t="s">
+        <v>1765</v>
+      </c>
+      <c r="W433" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G434">
+        <v>372900043349</v>
+      </c>
+      <c r="H434">
+        <v>372900043349</v>
+      </c>
+      <c r="L434" t="s">
+        <v>34</v>
+      </c>
+      <c r="M434" t="s">
+        <v>34</v>
+      </c>
+      <c r="P434" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R434" t="s">
+        <v>37</v>
+      </c>
+      <c r="T434" t="s">
+        <v>38</v>
+      </c>
+      <c r="U434" t="s">
+        <v>39</v>
+      </c>
+      <c r="V434" t="s">
+        <v>1769</v>
+      </c>
+      <c r="W434" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G435">
+        <v>372900043349</v>
+      </c>
+      <c r="H435">
+        <v>372900043349</v>
+      </c>
+      <c r="L435" t="s">
+        <v>34</v>
+      </c>
+      <c r="M435" t="s">
+        <v>34</v>
+      </c>
+      <c r="P435" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R435" t="s">
+        <v>37</v>
+      </c>
+      <c r="T435" t="s">
+        <v>38</v>
+      </c>
+      <c r="U435" t="s">
+        <v>39</v>
+      </c>
+      <c r="V435" t="s">
+        <v>1773</v>
+      </c>
+      <c r="W435" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G436">
+        <v>372900043349</v>
+      </c>
+      <c r="H436">
+        <v>372900043349</v>
+      </c>
+      <c r="J436" t="s">
+        <v>1777</v>
+      </c>
+      <c r="K436" t="s">
+        <v>33</v>
+      </c>
+      <c r="L436" t="s">
+        <v>34</v>
+      </c>
+      <c r="M436" t="s">
+        <v>34</v>
+      </c>
+      <c r="P436" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R436" t="s">
+        <v>37</v>
+      </c>
+      <c r="T436" t="s">
+        <v>38</v>
+      </c>
+      <c r="U436" t="s">
+        <v>39</v>
+      </c>
+      <c r="V436" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W436" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G437">
+        <v>372900043349</v>
+      </c>
+      <c r="H437">
+        <v>372900043349</v>
+      </c>
+      <c r="L437" t="s">
+        <v>34</v>
+      </c>
+      <c r="M437" t="s">
+        <v>34</v>
+      </c>
+      <c r="P437" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R437" t="s">
+        <v>37</v>
+      </c>
+      <c r="T437" t="s">
+        <v>38</v>
+      </c>
+      <c r="U437" t="s">
+        <v>39</v>
+      </c>
+      <c r="V437" t="s">
+        <v>1781</v>
+      </c>
+      <c r="W437" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G438">
+        <v>372900043349</v>
+      </c>
+      <c r="H438">
+        <v>372900043349</v>
+      </c>
+      <c r="L438" t="s">
+        <v>34</v>
+      </c>
+      <c r="M438" t="s">
+        <v>34</v>
+      </c>
+      <c r="P438" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R438" t="s">
+        <v>37</v>
+      </c>
+      <c r="T438" t="s">
+        <v>38</v>
+      </c>
+      <c r="U438" t="s">
+        <v>39</v>
+      </c>
+      <c r="V438" t="s">
+        <v>1785</v>
+      </c>
+      <c r="W438" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G439">
+        <v>372900043349</v>
+      </c>
+      <c r="H439">
+        <v>372900043349</v>
+      </c>
+      <c r="J439" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K439" t="s">
+        <v>33</v>
+      </c>
+      <c r="L439" t="s">
+        <v>34</v>
+      </c>
+      <c r="M439" t="s">
+        <v>34</v>
+      </c>
+      <c r="P439" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R439" t="s">
+        <v>37</v>
+      </c>
+      <c r="T439" t="s">
+        <v>38</v>
+      </c>
+      <c r="U439" t="s">
+        <v>39</v>
+      </c>
+      <c r="V439" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W439" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1788</v>
+      </c>
+      <c r="G440">
+        <v>372900043349</v>
+      </c>
+      <c r="H440">
+        <v>372900043349</v>
+      </c>
+      <c r="J440" t="s">
+        <v>1789</v>
+      </c>
+      <c r="K440" t="s">
+        <v>33</v>
+      </c>
+      <c r="L440" t="s">
+        <v>34</v>
+      </c>
+      <c r="M440" t="s">
+        <v>34</v>
+      </c>
+      <c r="P440" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R440" t="s">
+        <v>37</v>
+      </c>
+      <c r="T440" t="s">
+        <v>38</v>
+      </c>
+      <c r="U440" t="s">
+        <v>39</v>
+      </c>
+      <c r="V440" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W440" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B441" t="s">
+        <v>321</v>
+      </c>
+      <c r="G441">
+        <v>372900043349</v>
+      </c>
+      <c r="H441">
+        <v>372900043349</v>
+      </c>
+      <c r="J441" t="s">
+        <v>322</v>
+      </c>
+      <c r="K441" t="s">
+        <v>33</v>
+      </c>
+      <c r="L441" t="s">
+        <v>34</v>
+      </c>
+      <c r="M441" t="s">
+        <v>34</v>
+      </c>
+      <c r="P441" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R441" t="s">
+        <v>37</v>
+      </c>
+      <c r="T441" t="s">
+        <v>38</v>
+      </c>
+      <c r="U441" t="s">
+        <v>39</v>
+      </c>
+      <c r="V441" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W441" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B442" t="s">
+        <v>321</v>
+      </c>
+      <c r="G442">
+        <v>372900043349</v>
+      </c>
+      <c r="H442">
+        <v>372900043349</v>
+      </c>
+      <c r="J442" t="s">
+        <v>322</v>
+      </c>
+      <c r="K442" t="s">
+        <v>33</v>
+      </c>
+      <c r="L442" t="s">
+        <v>34</v>
+      </c>
+      <c r="M442" t="s">
+        <v>34</v>
+      </c>
+      <c r="P442" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R442" t="s">
+        <v>37</v>
+      </c>
+      <c r="T442" t="s">
+        <v>38</v>
+      </c>
+      <c r="U442" t="s">
+        <v>39</v>
+      </c>
+      <c r="V442" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W442" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B443" t="s">
+        <v>321</v>
+      </c>
+      <c r="G443">
+        <v>372900043349</v>
+      </c>
+      <c r="H443">
+        <v>372900043349</v>
+      </c>
+      <c r="J443" t="s">
+        <v>322</v>
+      </c>
+      <c r="K443" t="s">
+        <v>33</v>
+      </c>
+      <c r="L443" t="s">
+        <v>34</v>
+      </c>
+      <c r="M443" t="s">
+        <v>34</v>
+      </c>
+      <c r="P443" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R443" t="s">
+        <v>37</v>
+      </c>
+      <c r="T443" t="s">
+        <v>38</v>
+      </c>
+      <c r="U443" t="s">
+        <v>39</v>
+      </c>
+      <c r="V443" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W443" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B444" t="s">
+        <v>321</v>
+      </c>
+      <c r="G444">
+        <v>372900043349</v>
+      </c>
+      <c r="H444">
+        <v>372900043349</v>
+      </c>
+      <c r="J444" t="s">
+        <v>322</v>
+      </c>
+      <c r="K444" t="s">
+        <v>33</v>
+      </c>
+      <c r="L444" t="s">
+        <v>34</v>
+      </c>
+      <c r="M444" t="s">
+        <v>34</v>
+      </c>
+      <c r="P444" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R444" t="s">
+        <v>37</v>
+      </c>
+      <c r="T444" t="s">
+        <v>38</v>
+      </c>
+      <c r="U444" t="s">
+        <v>39</v>
+      </c>
+      <c r="V444" t="s">
+        <v>1790</v>
+      </c>
+      <c r="W444" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G445">
+        <v>372900043349</v>
+      </c>
+      <c r="H445">
+        <v>372900043349</v>
+      </c>
+      <c r="L445" t="s">
+        <v>34</v>
+      </c>
+      <c r="M445" t="s">
+        <v>34</v>
+      </c>
+      <c r="P445" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R445" t="s">
+        <v>37</v>
+      </c>
+      <c r="T445" t="s">
+        <v>38</v>
+      </c>
+      <c r="U445" t="s">
+        <v>39</v>
+      </c>
+      <c r="V445" t="s">
+        <v>1800</v>
+      </c>
+      <c r="W445" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1799</v>
+      </c>
+      <c r="G446">
+        <v>372900043349</v>
+      </c>
+      <c r="H446">
+        <v>372900043349</v>
+      </c>
+      <c r="L446" t="s">
+        <v>34</v>
+      </c>
+      <c r="M446" t="s">
+        <v>34</v>
+      </c>
+      <c r="P446" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R446" t="s">
+        <v>37</v>
+      </c>
+      <c r="T446" t="s">
+        <v>38</v>
+      </c>
+      <c r="U446" t="s">
+        <v>39</v>
+      </c>
+      <c r="V446" t="s">
+        <v>1800</v>
+      </c>
+      <c r="W446" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1804</v>
+      </c>
+      <c r="G447">
+        <v>372900043349</v>
+      </c>
+      <c r="H447">
+        <v>372900043349</v>
+      </c>
+      <c r="L447" t="s">
+        <v>34</v>
+      </c>
+      <c r="M447" t="s">
+        <v>34</v>
+      </c>
+      <c r="P447" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R447" t="s">
+        <v>37</v>
+      </c>
+      <c r="T447" t="s">
+        <v>38</v>
+      </c>
+      <c r="U447" t="s">
+        <v>39</v>
+      </c>
+      <c r="V447" t="s">
+        <v>1805</v>
+      </c>
+      <c r="W447" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1808</v>
+      </c>
+      <c r="G448">
+        <v>372900043349</v>
+      </c>
+      <c r="H448">
+        <v>372900043349</v>
+      </c>
+      <c r="J448" t="s">
+        <v>1809</v>
+      </c>
+      <c r="K448" t="s">
+        <v>33</v>
+      </c>
+      <c r="L448" t="s">
+        <v>34</v>
+      </c>
+      <c r="M448" t="s">
+        <v>34</v>
+      </c>
+      <c r="P448" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R448" t="s">
+        <v>37</v>
+      </c>
+      <c r="T448" t="s">
+        <v>38</v>
+      </c>
+      <c r="U448" t="s">
+        <v>39</v>
+      </c>
+      <c r="V448" t="s">
+        <v>1810</v>
+      </c>
+      <c r="W448" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1813</v>
+      </c>
+      <c r="G449">
+        <v>372900043349</v>
+      </c>
+      <c r="H449">
+        <v>372900043349</v>
+      </c>
+      <c r="L449" t="s">
+        <v>34</v>
+      </c>
+      <c r="M449" t="s">
+        <v>34</v>
+      </c>
+      <c r="P449" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R449" t="s">
+        <v>37</v>
+      </c>
+      <c r="T449" t="s">
+        <v>38</v>
+      </c>
+      <c r="U449" t="s">
+        <v>39</v>
+      </c>
+      <c r="V449" t="s">
+        <v>1814</v>
+      </c>
+      <c r="W449" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G450">
+        <v>372900043349</v>
+      </c>
+      <c r="H450">
+        <v>372900043349</v>
+      </c>
+      <c r="J450" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K450" t="s">
+        <v>33</v>
+      </c>
+      <c r="L450" t="s">
+        <v>34</v>
+      </c>
+      <c r="M450" t="s">
+        <v>34</v>
+      </c>
+      <c r="P450" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R450" t="s">
+        <v>37</v>
+      </c>
+      <c r="T450" t="s">
+        <v>38</v>
+      </c>
+      <c r="U450" t="s">
+        <v>39</v>
+      </c>
+      <c r="V450" t="s">
+        <v>1819</v>
+      </c>
+      <c r="W450" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1817</v>
+      </c>
+      <c r="G451">
+        <v>372900043349</v>
+      </c>
+      <c r="H451">
+        <v>372900043349</v>
+      </c>
+      <c r="J451" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K451" t="s">
+        <v>33</v>
+      </c>
+      <c r="L451" t="s">
+        <v>34</v>
+      </c>
+      <c r="M451" t="s">
+        <v>34</v>
+      </c>
+      <c r="P451" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R451" t="s">
+        <v>37</v>
+      </c>
+      <c r="T451" t="s">
+        <v>38</v>
+      </c>
+      <c r="U451" t="s">
+        <v>39</v>
+      </c>
+      <c r="V451" t="s">
+        <v>1819</v>
+      </c>
+      <c r="W451" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G452">
+        <v>372900043349</v>
+      </c>
+      <c r="H452">
+        <v>372900043349</v>
+      </c>
+      <c r="L452" t="s">
+        <v>34</v>
+      </c>
+      <c r="M452" t="s">
+        <v>34</v>
+      </c>
+      <c r="P452" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R452" t="s">
+        <v>37</v>
+      </c>
+      <c r="T452" t="s">
+        <v>38</v>
+      </c>
+      <c r="U452" t="s">
+        <v>39</v>
+      </c>
+      <c r="V452" t="s">
+        <v>1824</v>
+      </c>
+      <c r="W452" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G453">
+        <v>372900043349</v>
+      </c>
+      <c r="H453">
+        <v>372900043349</v>
+      </c>
+      <c r="L453" t="s">
+        <v>34</v>
+      </c>
+      <c r="M453" t="s">
+        <v>34</v>
+      </c>
+      <c r="P453" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R453" t="s">
+        <v>37</v>
+      </c>
+      <c r="T453" t="s">
+        <v>38</v>
+      </c>
+      <c r="U453" t="s">
+        <v>39</v>
+      </c>
+      <c r="V453" t="s">
+        <v>1828</v>
+      </c>
+      <c r="W453" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G454">
+        <v>372900043349</v>
+      </c>
+      <c r="H454">
+        <v>372900043349</v>
+      </c>
+      <c r="L454" t="s">
+        <v>34</v>
+      </c>
+      <c r="M454" t="s">
+        <v>34</v>
+      </c>
+      <c r="P454" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R454" t="s">
+        <v>37</v>
+      </c>
+      <c r="T454" t="s">
+        <v>38</v>
+      </c>
+      <c r="U454" t="s">
+        <v>39</v>
+      </c>
+      <c r="V454" t="s">
+        <v>1832</v>
+      </c>
+      <c r="W454" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1835</v>
+      </c>
+      <c r="G455">
+        <v>372900043349</v>
+      </c>
+      <c r="H455">
+        <v>372900043349</v>
+      </c>
+      <c r="L455" t="s">
+        <v>34</v>
+      </c>
+      <c r="M455" t="s">
+        <v>34</v>
+      </c>
+      <c r="P455" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R455" t="s">
+        <v>37</v>
+      </c>
+      <c r="T455" t="s">
+        <v>38</v>
+      </c>
+      <c r="U455" t="s">
+        <v>39</v>
+      </c>
+      <c r="V455" t="s">
+        <v>1836</v>
+      </c>
+      <c r="W455" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G456">
+        <v>372900043349</v>
+      </c>
+      <c r="H456">
+        <v>372900043349</v>
+      </c>
+      <c r="J456" t="s">
+        <v>1840</v>
+      </c>
+      <c r="K456" t="s">
+        <v>33</v>
+      </c>
+      <c r="L456" t="s">
+        <v>34</v>
+      </c>
+      <c r="M456" t="s">
+        <v>34</v>
+      </c>
+      <c r="P456" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R456" t="s">
+        <v>37</v>
+      </c>
+      <c r="T456" t="s">
+        <v>38</v>
+      </c>
+      <c r="U456" t="s">
+        <v>39</v>
+      </c>
+      <c r="V456" t="s">
+        <v>1841</v>
+      </c>
+      <c r="W456" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G457">
+        <v>372900043349</v>
+      </c>
+      <c r="H457">
+        <v>372900043349</v>
+      </c>
+      <c r="J457" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K457" t="s">
+        <v>33</v>
+      </c>
+      <c r="L457" t="s">
+        <v>34</v>
+      </c>
+      <c r="M457" t="s">
+        <v>34</v>
+      </c>
+      <c r="P457" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R457" t="s">
+        <v>37</v>
+      </c>
+      <c r="T457" t="s">
+        <v>38</v>
+      </c>
+      <c r="U457" t="s">
+        <v>39</v>
+      </c>
+      <c r="V457" t="s">
+        <v>1846</v>
+      </c>
+      <c r="W457" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1849</v>
+      </c>
+      <c r="G458">
+        <v>372900043349</v>
+      </c>
+      <c r="H458">
+        <v>372900043349</v>
+      </c>
+      <c r="J458" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K458" t="s">
+        <v>33</v>
+      </c>
+      <c r="L458" t="s">
+        <v>34</v>
+      </c>
+      <c r="M458" t="s">
+        <v>34</v>
+      </c>
+      <c r="P458" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R458" t="s">
+        <v>37</v>
+      </c>
+      <c r="T458" t="s">
+        <v>38</v>
+      </c>
+      <c r="U458" t="s">
+        <v>39</v>
+      </c>
+      <c r="V458" t="s">
+        <v>1841</v>
+      </c>
+      <c r="W458" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B459" t="s">
+        <v>321</v>
+      </c>
+      <c r="G459">
+        <v>372900043349</v>
+      </c>
+      <c r="H459">
+        <v>372900043349</v>
+      </c>
+      <c r="J459" t="s">
+        <v>322</v>
+      </c>
+      <c r="K459" t="s">
+        <v>33</v>
+      </c>
+      <c r="L459" t="s">
+        <v>34</v>
+      </c>
+      <c r="M459" t="s">
+        <v>34</v>
+      </c>
+      <c r="P459" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R459" t="s">
+        <v>37</v>
+      </c>
+      <c r="T459" t="s">
+        <v>38</v>
+      </c>
+      <c r="U459" t="s">
+        <v>39</v>
+      </c>
+      <c r="V459" t="s">
+        <v>1836</v>
+      </c>
+      <c r="W459" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G460">
+        <v>372900043349</v>
+      </c>
+      <c r="H460">
+        <v>372900043349</v>
+      </c>
+      <c r="J460" t="s">
+        <v>1856</v>
+      </c>
+      <c r="K460" t="s">
+        <v>33</v>
+      </c>
+      <c r="L460" t="s">
+        <v>34</v>
+      </c>
+      <c r="M460" t="s">
+        <v>34</v>
+      </c>
+      <c r="P460" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R460" t="s">
+        <v>37</v>
+      </c>
+      <c r="T460" t="s">
+        <v>38</v>
+      </c>
+      <c r="U460" t="s">
+        <v>39</v>
+      </c>
+      <c r="V460" t="s">
+        <v>1857</v>
+      </c>
+      <c r="W460" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1860</v>
+      </c>
+      <c r="G461">
+        <v>372900043349</v>
+      </c>
+      <c r="H461">
+        <v>372900043349</v>
+      </c>
+      <c r="J461" t="s">
+        <v>1861</v>
+      </c>
+      <c r="K461" t="s">
+        <v>33</v>
+      </c>
+      <c r="L461" t="s">
+        <v>34</v>
+      </c>
+      <c r="M461" t="s">
+        <v>34</v>
+      </c>
+      <c r="P461" t="s">
+        <v>1731</v>
+      </c>
+      <c r="R461" t="s">
+        <v>37</v>
+      </c>
+      <c r="T461" t="s">
+        <v>38</v>
+      </c>
+      <c r="U461" t="s">
+        <v>39</v>
+      </c>
+      <c r="V461" t="s">
+        <v>1862</v>
+      </c>
+      <c r="W461" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C462">
+        <v>6302100001</v>
+      </c>
+      <c r="G462">
+        <v>372900043349</v>
+      </c>
+      <c r="H462">
+        <v>372900043349</v>
+      </c>
+      <c r="J462" t="s">
+        <v>1866</v>
+      </c>
+      <c r="K462" t="s">
+        <v>33</v>
+      </c>
+      <c r="L462" t="s">
+        <v>34</v>
+      </c>
+      <c r="M462" t="s">
+        <v>34</v>
+      </c>
+      <c r="N462" t="s">
+        <v>1867</v>
+      </c>
+      <c r="O462" t="s">
+        <v>1868</v>
+      </c>
+      <c r="P462" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R462" t="s">
+        <v>37</v>
+      </c>
+      <c r="S462" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T462" t="s">
+        <v>38</v>
+      </c>
+      <c r="U462" t="s">
+        <v>39</v>
+      </c>
+      <c r="V462" t="s">
+        <v>1871</v>
+      </c>
+      <c r="W462" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B463" t="s">
+        <v>216</v>
+      </c>
+      <c r="G463">
+        <v>372900043349</v>
+      </c>
+      <c r="H463">
+        <v>372900043349</v>
+      </c>
+      <c r="J463" t="s">
+        <v>217</v>
+      </c>
+      <c r="K463" t="s">
+        <v>33</v>
+      </c>
+      <c r="L463" t="s">
+        <v>34</v>
+      </c>
+      <c r="M463" t="s">
+        <v>34</v>
+      </c>
+      <c r="O463" t="s">
+        <v>1874</v>
+      </c>
+      <c r="P463" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R463" t="s">
+        <v>37</v>
+      </c>
+      <c r="S463" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T463" t="s">
+        <v>38</v>
+      </c>
+      <c r="U463" t="s">
+        <v>39</v>
+      </c>
+      <c r="V463" t="s">
+        <v>1875</v>
+      </c>
+      <c r="W463" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C464">
+        <v>6302100001</v>
+      </c>
+      <c r="G464">
+        <v>372900043349</v>
+      </c>
+      <c r="H464">
+        <v>372900043349</v>
+      </c>
+      <c r="J464" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K464" t="s">
+        <v>33</v>
+      </c>
+      <c r="L464" t="s">
+        <v>34</v>
+      </c>
+      <c r="M464" t="s">
+        <v>34</v>
+      </c>
+      <c r="N464" t="s">
+        <v>612</v>
+      </c>
+      <c r="O464" t="s">
+        <v>1880</v>
+      </c>
+      <c r="P464" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R464" t="s">
+        <v>37</v>
+      </c>
+      <c r="S464" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T464" t="s">
+        <v>38</v>
+      </c>
+      <c r="U464" t="s">
+        <v>39</v>
+      </c>
+      <c r="V464" t="s">
+        <v>1881</v>
+      </c>
+      <c r="W464" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C465">
+        <v>6302100001</v>
+      </c>
+      <c r="G465">
+        <v>372900043349</v>
+      </c>
+      <c r="H465">
+        <v>372900043349</v>
+      </c>
+      <c r="J465" t="s">
+        <v>1879</v>
+      </c>
+      <c r="K465" t="s">
+        <v>33</v>
+      </c>
+      <c r="L465" t="s">
+        <v>34</v>
+      </c>
+      <c r="M465" t="s">
+        <v>34</v>
+      </c>
+      <c r="N465" t="s">
+        <v>612</v>
+      </c>
+      <c r="O465" t="s">
+        <v>1880</v>
+      </c>
+      <c r="P465" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R465" t="s">
+        <v>37</v>
+      </c>
+      <c r="S465" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T465" t="s">
+        <v>38</v>
+      </c>
+      <c r="U465" t="s">
+        <v>39</v>
+      </c>
+      <c r="V465" t="s">
+        <v>1881</v>
+      </c>
+      <c r="W465" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C466">
+        <v>6302100001</v>
+      </c>
+      <c r="G466">
+        <v>372900043349</v>
+      </c>
+      <c r="H466">
+        <v>372900043349</v>
+      </c>
+      <c r="J466" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K466" t="s">
+        <v>33</v>
+      </c>
+      <c r="L466" t="s">
+        <v>34</v>
+      </c>
+      <c r="M466" t="s">
+        <v>34</v>
+      </c>
+      <c r="N466" t="s">
+        <v>612</v>
+      </c>
+      <c r="O466" t="s">
+        <v>1885</v>
+      </c>
+      <c r="P466" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R466" t="s">
+        <v>37</v>
+      </c>
+      <c r="S466" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T466" t="s">
+        <v>38</v>
+      </c>
+      <c r="U466" t="s">
+        <v>39</v>
+      </c>
+      <c r="V466" t="s">
+        <v>1886</v>
+      </c>
+      <c r="W466" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C467">
+        <v>6302100001</v>
+      </c>
+      <c r="G467">
+        <v>372900043349</v>
+      </c>
+      <c r="H467">
+        <v>372900043349</v>
+      </c>
+      <c r="J467" t="s">
+        <v>1890</v>
+      </c>
+      <c r="K467" t="s">
+        <v>33</v>
+      </c>
+      <c r="L467" t="s">
+        <v>34</v>
+      </c>
+      <c r="M467" t="s">
+        <v>34</v>
+      </c>
+      <c r="N467" t="s">
+        <v>612</v>
+      </c>
+      <c r="O467" t="s">
+        <v>1891</v>
+      </c>
+      <c r="P467" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R467" t="s">
+        <v>37</v>
+      </c>
+      <c r="S467" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T467" t="s">
+        <v>38</v>
+      </c>
+      <c r="U467" t="s">
+        <v>39</v>
+      </c>
+      <c r="V467" t="s">
+        <v>1892</v>
+      </c>
+      <c r="W467" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C468">
+        <v>6302100001</v>
+      </c>
+      <c r="G468">
+        <v>372900043349</v>
+      </c>
+      <c r="H468">
+        <v>372900043349</v>
+      </c>
+      <c r="J468" t="s">
+        <v>1896</v>
+      </c>
+      <c r="K468" t="s">
+        <v>33</v>
+      </c>
+      <c r="L468" t="s">
+        <v>34</v>
+      </c>
+      <c r="M468" t="s">
+        <v>34</v>
+      </c>
+      <c r="N468" t="s">
+        <v>612</v>
+      </c>
+      <c r="O468" t="s">
+        <v>1885</v>
+      </c>
+      <c r="P468" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R468" t="s">
+        <v>37</v>
+      </c>
+      <c r="S468" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T468" t="s">
+        <v>38</v>
+      </c>
+      <c r="U468" t="s">
+        <v>39</v>
+      </c>
+      <c r="V468" t="s">
+        <v>1897</v>
+      </c>
+      <c r="W468" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C469">
+        <v>6302100001</v>
+      </c>
+      <c r="G469">
+        <v>372900043349</v>
+      </c>
+      <c r="H469">
+        <v>372900043349</v>
+      </c>
+      <c r="J469" t="s">
+        <v>1901</v>
+      </c>
+      <c r="K469" t="s">
+        <v>33</v>
+      </c>
+      <c r="L469" t="s">
+        <v>34</v>
+      </c>
+      <c r="M469" t="s">
+        <v>34</v>
+      </c>
+      <c r="N469" t="s">
+        <v>612</v>
+      </c>
+      <c r="O469" t="s">
+        <v>1902</v>
+      </c>
+      <c r="P469" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R469" t="s">
+        <v>37</v>
+      </c>
+      <c r="S469" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T469" t="s">
+        <v>38</v>
+      </c>
+      <c r="U469" t="s">
+        <v>39</v>
+      </c>
+      <c r="V469" t="s">
+        <v>1903</v>
+      </c>
+      <c r="W469" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B470" t="s">
+        <v>205</v>
+      </c>
+      <c r="C470">
+        <v>6302100001</v>
+      </c>
+      <c r="G470">
+        <v>372900043349</v>
+      </c>
+      <c r="H470">
+        <v>372900043349</v>
+      </c>
+      <c r="J470" t="s">
+        <v>206</v>
+      </c>
+      <c r="K470" t="s">
+        <v>33</v>
+      </c>
+      <c r="L470" t="s">
+        <v>34</v>
+      </c>
+      <c r="M470" t="s">
+        <v>34</v>
+      </c>
+      <c r="N470" t="s">
+        <v>735</v>
+      </c>
+      <c r="O470" t="s">
+        <v>1906</v>
+      </c>
+      <c r="P470" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R470" t="s">
+        <v>37</v>
+      </c>
+      <c r="S470" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T470" t="s">
+        <v>38</v>
+      </c>
+      <c r="U470" t="s">
+        <v>39</v>
+      </c>
+      <c r="V470" t="s">
+        <v>1907</v>
+      </c>
+      <c r="W470" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B471" t="s">
+        <v>205</v>
+      </c>
+      <c r="C471">
+        <v>6302100001</v>
+      </c>
+      <c r="G471">
+        <v>372900043349</v>
+      </c>
+      <c r="H471">
+        <v>372900043349</v>
+      </c>
+      <c r="J471" t="s">
+        <v>206</v>
+      </c>
+      <c r="K471" t="s">
+        <v>33</v>
+      </c>
+      <c r="L471" t="s">
+        <v>34</v>
+      </c>
+      <c r="M471" t="s">
+        <v>34</v>
+      </c>
+      <c r="N471" t="s">
+        <v>735</v>
+      </c>
+      <c r="O471" t="s">
+        <v>1906</v>
+      </c>
+      <c r="P471" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R471" t="s">
+        <v>37</v>
+      </c>
+      <c r="S471" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T471" t="s">
+        <v>38</v>
+      </c>
+      <c r="U471" t="s">
+        <v>39</v>
+      </c>
+      <c r="V471" t="s">
+        <v>1907</v>
+      </c>
+      <c r="W471" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C472">
+        <v>6302100001</v>
+      </c>
+      <c r="G472">
+        <v>372900043349</v>
+      </c>
+      <c r="H472">
+        <v>372900043349</v>
+      </c>
+      <c r="J472" t="s">
+        <v>1912</v>
+      </c>
+      <c r="K472" t="s">
+        <v>33</v>
+      </c>
+      <c r="L472" t="s">
+        <v>34</v>
+      </c>
+      <c r="M472" t="s">
+        <v>34</v>
+      </c>
+      <c r="N472" t="s">
+        <v>735</v>
+      </c>
+      <c r="O472" t="s">
+        <v>1913</v>
+      </c>
+      <c r="P472" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R472" t="s">
+        <v>37</v>
+      </c>
+      <c r="S472" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T472" t="s">
+        <v>38</v>
+      </c>
+      <c r="U472" t="s">
+        <v>39</v>
+      </c>
+      <c r="V472" t="s">
+        <v>1914</v>
+      </c>
+      <c r="W472" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C473">
+        <v>6302100001</v>
+      </c>
+      <c r="G473">
+        <v>372900043349</v>
+      </c>
+      <c r="H473">
+        <v>372900043349</v>
+      </c>
+      <c r="J473" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K473" t="s">
+        <v>33</v>
+      </c>
+      <c r="L473" t="s">
+        <v>34</v>
+      </c>
+      <c r="M473" t="s">
+        <v>34</v>
+      </c>
+      <c r="N473" t="s">
+        <v>735</v>
+      </c>
+      <c r="O473" t="s">
+        <v>1919</v>
+      </c>
+      <c r="P473" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R473" t="s">
+        <v>37</v>
+      </c>
+      <c r="S473" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T473" t="s">
+        <v>38</v>
+      </c>
+      <c r="U473" t="s">
+        <v>39</v>
+      </c>
+      <c r="V473" t="s">
+        <v>1920</v>
+      </c>
+      <c r="W473" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C474">
+        <v>6302100001</v>
+      </c>
+      <c r="G474">
+        <v>372900043349</v>
+      </c>
+      <c r="H474">
+        <v>372900043349</v>
+      </c>
+      <c r="J474" t="s">
+        <v>1924</v>
+      </c>
+      <c r="K474" t="s">
+        <v>33</v>
+      </c>
+      <c r="L474" t="s">
+        <v>34</v>
+      </c>
+      <c r="M474" t="s">
+        <v>34</v>
+      </c>
+      <c r="N474" t="s">
+        <v>735</v>
+      </c>
+      <c r="O474" t="s">
+        <v>1925</v>
+      </c>
+      <c r="P474" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R474" t="s">
+        <v>37</v>
+      </c>
+      <c r="S474" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T474" t="s">
+        <v>38</v>
+      </c>
+      <c r="U474" t="s">
+        <v>39</v>
+      </c>
+      <c r="V474" t="s">
+        <v>1926</v>
+      </c>
+      <c r="W474" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C475">
+        <v>6302100001</v>
+      </c>
+      <c r="G475">
+        <v>372900043349</v>
+      </c>
+      <c r="H475">
+        <v>372900043349</v>
+      </c>
+      <c r="J475" t="s">
+        <v>1930</v>
+      </c>
+      <c r="K475" t="s">
+        <v>33</v>
+      </c>
+      <c r="L475" t="s">
+        <v>34</v>
+      </c>
+      <c r="M475" t="s">
+        <v>34</v>
+      </c>
+      <c r="N475" t="s">
+        <v>735</v>
+      </c>
+      <c r="O475" t="s">
+        <v>1931</v>
+      </c>
+      <c r="P475" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R475" t="s">
+        <v>37</v>
+      </c>
+      <c r="S475" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T475" t="s">
+        <v>38</v>
+      </c>
+      <c r="U475" t="s">
+        <v>39</v>
+      </c>
+      <c r="V475" t="s">
+        <v>1932</v>
+      </c>
+      <c r="W475" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1935</v>
+      </c>
+      <c r="G476">
+        <v>372900043349</v>
+      </c>
+      <c r="H476">
+        <v>372900043349</v>
+      </c>
+      <c r="J476" t="s">
+        <v>1936</v>
+      </c>
+      <c r="K476" t="s">
+        <v>33</v>
+      </c>
+      <c r="L476" t="s">
+        <v>34</v>
+      </c>
+      <c r="M476" t="s">
+        <v>34</v>
+      </c>
+      <c r="O476" t="s">
+        <v>1937</v>
+      </c>
+      <c r="P476" t="s">
+        <v>1869</v>
+      </c>
+      <c r="R476" t="s">
+        <v>37</v>
+      </c>
+      <c r="S476" t="s">
+        <v>1870</v>
+      </c>
+      <c r="T476" t="s">
+        <v>38</v>
+      </c>
+      <c r="U476" t="s">
+        <v>39</v>
+      </c>
+      <c r="V476" t="s">
+        <v>1938</v>
+      </c>
+      <c r="W476" t="s">
+        <v>1939</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
